--- a/docs/execution_time_and_order.xlsx
+++ b/docs/execution_time_and_order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D05383-4788-6049-B128-A0FEB504E593}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792795D5-1B1C-2A41-87B6-6D9B93319D13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{63680216-DC63-6248-95B9-EDD81A71E515}"/>
+    <workbookView xWindow="-38000" yWindow="-5140" windowWidth="16200" windowHeight="21140" xr2:uid="{63680216-DC63-6248-95B9-EDD81A71E515}"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia diversity" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>function</t>
   </si>
@@ -37,9 +37,6 @@
     <t>introducing article features</t>
   </si>
   <si>
-    <t>retrieve potential negative ccc features</t>
-  </si>
-  <si>
     <t>filtering and creating the definitive ccc</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>insert_page_ids_page_titles</t>
   </si>
   <si>
-    <t>generate_all_ccc_vital_articles_lists</t>
-  </si>
-  <si>
     <t>generating main stats</t>
   </si>
   <si>
@@ -139,12 +133,6 @@
     <t>retrieve potential ccc articles features</t>
   </si>
   <si>
-    <t>esborrar els articles obsolets</t>
-  </si>
-  <si>
-    <t>aconseguir qitem, page_id, page_title.</t>
-  </si>
-  <si>
     <t>obtenir els diversity features directes de wp. gender, topics, geolocated, keywords, etc.</t>
   </si>
   <si>
@@ -203,6 +191,15 @@
   </si>
   <si>
     <t>year-month cycle is the last entire month for which we have data for the whole month. So if we parse the wikidata dump of may 2019, the year_month is 2019-04.</t>
+  </si>
+  <si>
+    <t>it generates both the top_ccc_articles and the intersections for the top_ccc_coverage and top_ccc_spread.</t>
+  </si>
+  <si>
+    <t>altres</t>
+  </si>
+  <si>
+    <t>generate_all_top_ccc_articles_lists</t>
   </si>
 </sst>
 </file>
@@ -622,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B382E3D-26FC-7E4C-A3A1-7ECF31DC8FD4}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,77 +638,77 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
       <c r="G3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
         <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>0</v>
@@ -720,146 +717,120 @@
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>0.08</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>3</v>
-      </c>
-      <c r="C22" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>24</v>
-      </c>
-      <c r="D23" s="4">
-        <f>SUM(C10:C29)/24</f>
-        <v>13.836666666666668</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -867,13 +838,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -881,13 +852,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="5">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -895,38 +866,44 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D30" s="4">
+        <f>SUM(C10:C29)/24</f>
+        <v>2.9166666666666665</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -934,55 +911,58 @@
         <v>24</v>
       </c>
       <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
         <v>32</v>
       </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <f>2*24</f>
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39" s="4">
         <f>SUM(C10:C35)/24</f>
-        <v>16.83666666666667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.916666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
     </row>
   </sheetData>
@@ -1006,7 +986,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1015,31 +995,31 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1072,7 +1052,7 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C47" s="4">
         <f>SUM(C2:C19)/24</f>

--- a/docs/execution_time_and_order.xlsx
+++ b/docs/execution_time_and_order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792795D5-1B1C-2A41-87B6-6D9B93319D13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE7F20-9910-F348-8692-266CD09B59A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38000" yWindow="-5140" windowWidth="16200" windowHeight="21140" xr2:uid="{63680216-DC63-6248-95B9-EDD81A71E515}"/>
+    <workbookView xWindow="31940" yWindow="-10080" windowWidth="28180" windowHeight="20520" xr2:uid="{63680216-DC63-6248-95B9-EDD81A71E515}"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia diversity" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>function</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>generate_all_top_ccc_articles_lists</t>
+  </si>
+  <si>
+    <t>wikidata.db</t>
+  </si>
+  <si>
+    <t>23 GB</t>
   </si>
 </sst>
 </file>
@@ -622,7 +628,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,7 +746,13 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
